--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -46,43 +46,106 @@
 10. Nhiệm vụ được phân công cần được chia nhỏ theo ngày với deadline là 10h hằng ngày, mỗi khi xong nhiệm vụ thành viên cần thay đổi trạng thái nhiệm vụ thành chờ test, nhóm trưởng sẽ kiểm tra và thay đổi trạng thái thành đã hoàn thành hoặc fixing tùy theo mức độ hoàn thiện.</t>
   </si>
   <si>
+    <t>Upload video meeting</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>Upload git hub</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Học làm SRS và SDS và làm mẫu nộp cho thầy</t>
+  </si>
+  <si>
+    <t>Tú Anh</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Training thiết kế figma</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
     <t>Code JSP cho CourseList và CourseDetail</t>
   </si>
   <si>
-    <t>Tú Anh</t>
-  </si>
-  <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>16/05/2023</t>
   </si>
   <si>
+    <t>Tạo entity cho HomePage</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Tạo DAO cho HomePage</t>
+  </si>
+  <si>
+    <t>Làm giao diện đăng ký</t>
+  </si>
+  <si>
+    <t>Làm entity và DAO cho đăng ký</t>
+  </si>
+  <si>
+    <t>Code servlet cho đăng ký</t>
+  </si>
+  <si>
+    <t>Code JSP cho login</t>
+  </si>
+  <si>
+    <t>Quốc Anh</t>
+  </si>
+  <si>
+    <t>Vẽ flow chart</t>
+  </si>
+  <si>
+    <t>Fixing</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
     <t>Phổ biến database cho mọi người</t>
   </si>
   <si>
-    <t>Mạnh</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
-  </si>
-  <si>
-    <t>Vẽ flow chart</t>
-  </si>
-  <si>
-    <t>Sơn</t>
-  </si>
-  <si>
-    <t>Fixing</t>
-  </si>
-  <si>
-    <t>Tạo entity cho HomePage</t>
-  </si>
-  <si>
-    <t>Linh</t>
+    <t>Làm servlet cho HomePage</t>
+  </si>
+  <si>
+    <t>Điền thông tin vào gg sheet project tracking</t>
+  </si>
+  <si>
+    <t>Viết tài liệu SRS cho phần mình làm</t>
+  </si>
+  <si>
+    <t>Cả nhóm</t>
+  </si>
+  <si>
+    <t>Viết tài liệu SDS cho phần mình làm</t>
+  </si>
+  <si>
+    <t>Code DAO và entity cho login</t>
+  </si>
+  <si>
+    <t>Code servlet cho login</t>
+  </si>
+  <si>
+    <t>Làm enity và DAO cho BlogList và BlogDetails</t>
+  </si>
+  <si>
+    <t>Training SRS và SDS</t>
   </si>
   <si>
     <t>Làm servlet cho CourseDetail và CourseList</t>
@@ -91,94 +154,31 @@
     <t>18/05/2023</t>
   </si>
   <si>
-    <t>Upload video meeting</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>Làm servlet cho HomePage</t>
-  </si>
-  <si>
-    <t>Tạo DAO cho HomePage</t>
-  </si>
-  <si>
-    <t>Điền thông tin vào gg sheet project tracking</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Viết tài liệu SRS cho phần mình làm</t>
-  </si>
-  <si>
-    <t>Cả nhóm</t>
-  </si>
-  <si>
-    <t>Viết tài liệu SDS cho phần mình làm</t>
-  </si>
-  <si>
-    <t>Code DAO và entity cho login</t>
-  </si>
-  <si>
-    <t>Quốc Anh</t>
-  </si>
-  <si>
-    <t>Code servlet cho login</t>
-  </si>
-  <si>
-    <t>Làm giao diện đăng ký</t>
-  </si>
-  <si>
-    <t>Làm entity và DAO cho đăng ký</t>
-  </si>
-  <si>
-    <t>Code servlet cho đăng ký</t>
-  </si>
-  <si>
-    <t>Code JSP cho login</t>
-  </si>
-  <si>
-    <t>Upload git hub</t>
-  </si>
-  <si>
     <t>Làm servlet với JSP cho User Profile</t>
   </si>
   <si>
     <t>Làm reset servlet và JSP cho reset password</t>
   </si>
   <si>
+    <t>Làm JSP cho BlogList và BlogDetails</t>
+  </si>
+  <si>
+    <t>Đọc tài liệu code convention</t>
+  </si>
+  <si>
     <t>Làm reset servlet và JSP cho change password</t>
   </si>
   <si>
     <t>19/05/2023</t>
   </si>
   <si>
-    <t>Làm JSP cho BlogList và BlogDetails</t>
-  </si>
-  <si>
-    <t>Làm enity và DAO cho BlogList và BlogDetails</t>
-  </si>
-  <si>
-    <t>Authorizato</t>
+    <t>Làm servlet cho BlogDetail và BlogList</t>
+  </si>
+  <si>
+    <t>Authorization</t>
   </si>
   <si>
     <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>Học làm SRS và SDS và làm mẫu nộp cho thầy</t>
-  </si>
-  <si>
-    <t>Training SRS và SDS</t>
-  </si>
-  <si>
-    <t>Training thiết kế figma</t>
-  </si>
-  <si>
-    <t>Làm servlet cho BlogDetail và BlogList</t>
-  </si>
-  <si>
-    <t>Đọc tài liệu code convention</t>
   </si>
 </sst>
 </file>
@@ -187,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,6 +213,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,24 +306,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,65 +336,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,22 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +550,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,69 +650,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1235,17 +1235,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1259,21 +1259,21 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" hidden="1" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1287,18 +1287,18 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" hidden="1" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1315,21 +1315,21 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" hidden="1" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1343,21 +1343,21 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" hidden="1" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1371,21 +1371,21 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" hidden="1" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1399,21 +1399,21 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" hidden="1" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1427,21 +1427,21 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" hidden="1" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1455,21 +1455,21 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" hidden="1" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1483,21 +1483,21 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" hidden="1" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1511,21 +1511,21 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" hidden="1" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1544,16 +1544,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1572,16 +1572,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1595,21 +1595,21 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" hidden="1" spans="1:22">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1623,21 +1623,21 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" hidden="1" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1651,21 +1651,21 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" hidden="1" spans="1:22">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1679,21 +1679,21 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" hidden="1" spans="1:22">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
+      <c r="B19" t="s">
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1707,21 +1707,21 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" hidden="1" spans="1:22">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1735,21 +1735,21 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" hidden="1" spans="1:22">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1763,21 +1763,21 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" hidden="1" spans="1:22">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
+      <c r="B22" t="s">
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1795,17 +1795,17 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
+      <c r="B23" t="s">
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1814,21 +1814,21 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" hidden="1" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1837,21 +1837,21 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" hidden="1" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>44</v>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1860,21 +1860,21 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" hidden="1" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>46</v>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1883,21 +1883,21 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" hidden="1" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1906,21 +1906,21 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" hidden="1" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>48</v>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1929,12 +1929,24 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1942,36 +1954,32 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:1">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C31">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Mạnh"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:E31">
+    <sortCondition ref="E2"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="G1:L28"/>
   </mergeCells>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -52,76 +52,76 @@
     <t>Mạnh</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>Upload git hub</t>
+  </si>
+  <si>
+    <t>Học làm SRS và SDS và làm mẫu nộp cho thầy</t>
+  </si>
+  <si>
+    <t>Tú Anh</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Training thiết kế figma</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>Code JSP cho CourseList và CourseDetail</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>Tạo entity cho HomePage</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Tạo DAO cho HomePage</t>
+  </si>
+  <si>
+    <t>Làm giao diện đăng ký</t>
+  </si>
+  <si>
+    <t>Làm entity và DAO cho đăng ký</t>
+  </si>
+  <si>
+    <t>Code servlet cho đăng ký</t>
+  </si>
+  <si>
+    <t>Code JSP cho login</t>
+  </si>
+  <si>
+    <t>Quốc Anh</t>
+  </si>
+  <si>
+    <t>Vẽ flow chart</t>
+  </si>
+  <si>
+    <t>Fixing</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t>Phổ biến database cho mọi người</t>
+  </si>
+  <si>
+    <t>Làm servlet cho HomePage</t>
+  </si>
+  <si>
     <t>To Do</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>Upload git hub</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Học làm SRS và SDS và làm mẫu nộp cho thầy</t>
-  </si>
-  <si>
-    <t>Tú Anh</t>
-  </si>
-  <si>
-    <t>Doing</t>
-  </si>
-  <si>
-    <t>Training thiết kế figma</t>
-  </si>
-  <si>
-    <t>Sơn</t>
-  </si>
-  <si>
-    <t>Code JSP cho CourseList và CourseDetail</t>
-  </si>
-  <si>
-    <t>16/05/2023</t>
-  </si>
-  <si>
-    <t>Tạo entity cho HomePage</t>
-  </si>
-  <si>
-    <t>Linh</t>
-  </si>
-  <si>
-    <t>Tạo DAO cho HomePage</t>
-  </si>
-  <si>
-    <t>Làm giao diện đăng ký</t>
-  </si>
-  <si>
-    <t>Làm entity và DAO cho đăng ký</t>
-  </si>
-  <si>
-    <t>Code servlet cho đăng ký</t>
-  </si>
-  <si>
-    <t>Code JSP cho login</t>
-  </si>
-  <si>
-    <t>Quốc Anh</t>
-  </si>
-  <si>
-    <t>Vẽ flow chart</t>
-  </si>
-  <si>
-    <t>Fixing</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
-  </si>
-  <si>
-    <t>Phổ biến database cho mọi người</t>
-  </si>
-  <si>
-    <t>Làm servlet cho HomePage</t>
   </si>
   <si>
     <t>Điền thông tin vào gg sheet project tracking</t>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,16 +206,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,32 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,10 +245,62 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,24 +312,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,22 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,19 +359,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,163 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +577,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -588,26 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +616,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,27 +650,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1264,13 +1264,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1292,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1320,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1348,16 +1348,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1376,16 +1376,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1404,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1432,16 +1432,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1460,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1488,16 +1488,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1516,16 +1516,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1544,16 +1544,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1572,16 +1572,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1603,13 +1603,13 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1634,10 +1634,10 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1662,10 +1662,10 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1687,13 +1687,13 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1715,13 +1715,13 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1743,13 +1743,13 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1771,13 +1771,13 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1802,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -1822,10 +1822,10 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -1845,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -1868,10 +1868,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -1891,10 +1891,10 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -1914,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -1954,10 +1954,10 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -1971,9 +1971,9 @@
   </sheetData>
   <autoFilter ref="C1:C31">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Mạnh"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Mạnh"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -67,13 +67,13 @@
     <t>Tú Anh</t>
   </si>
   <si>
+    <t>Training thiết kế figma</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
     <t>Doing</t>
-  </si>
-  <si>
-    <t>Training thiết kế figma</t>
-  </si>
-  <si>
-    <t>Sơn</t>
   </si>
   <si>
     <t>Code JSP cho CourseList và CourseDetail</t>
@@ -186,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -204,14 +204,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -230,25 +222,32 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,14 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,22 +282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -313,14 +299,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,9 +329,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +557,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -601,37 +607,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,18 +630,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1203,7 +1203,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" hidden="1" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" hidden="1" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" hidden="1" spans="1:22">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1292,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1315,7 +1315,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" hidden="1" spans="1:22">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1354,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1382,7 +1382,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1407,10 +1407,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1435,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1463,10 +1463,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1494,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1539,7 +1539,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" hidden="1" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1567,7 +1567,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" hidden="1" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -1718,7 +1718,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1763,7 +1763,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" hidden="1" spans="1:22">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" hidden="1" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1860,7 +1860,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" hidden="1" spans="1:12">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1971,9 +1971,9 @@
   </sheetData>
   <autoFilter ref="C1:C31">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="Mạnh"/>
-      </customFilters>
+      <filters>
+        <filter val="Tú Anh"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -2001,11 +2001,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
+      <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11:C15 C16:C23 C24:C31">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
-      <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -187,9 +187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,9 +206,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +235,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,16 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -269,36 +290,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +313,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -328,7 +321,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +337,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,187 +359,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,37 +607,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +630,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1203,7 +1203,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" hidden="1" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" hidden="1" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" hidden="1" spans="1:22">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" hidden="1" spans="1:22">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" hidden="1" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" hidden="1" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" hidden="1" spans="1:22">
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" hidden="1" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" hidden="1" spans="1:12">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1929,7 +1929,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1971,9 +1971,9 @@
   </sheetData>
   <autoFilter ref="C1:C31">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="Mạnh"/>
-      </customFilters>
+      <filters>
+        <filter val="Tú Anh"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -94,9 +94,15 @@
     <t>Làm giao diện đăng ký</t>
   </si>
   <si>
+    <t>18/05/2023</t>
+  </si>
+  <si>
     <t>Làm entity và DAO cho đăng ký</t>
   </si>
   <si>
+    <t>Testing</t>
+  </si>
+  <si>
     <t>Code servlet cho đăng ký</t>
   </si>
   <si>
@@ -112,12 +118,15 @@
     <t>Fixing</t>
   </si>
   <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>Phổ biến database cho mọi người</t>
+  </si>
+  <si>
     <t>17/05/2023</t>
   </si>
   <si>
-    <t>Phổ biến database cho mọi người</t>
-  </si>
-  <si>
     <t>Làm servlet cho HomePage</t>
   </si>
   <si>
@@ -151,9 +160,6 @@
     <t>Làm servlet cho CourseDetail và CourseList</t>
   </si>
   <si>
-    <t>18/05/2023</t>
-  </si>
-  <si>
     <t>Làm servlet với JSP cho User Profile</t>
   </si>
   <si>
@@ -167,9 +173,6 @@
   </si>
   <si>
     <t>Làm reset servlet và JSP cho change password</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
   </si>
   <si>
     <t>Làm servlet cho BlogDetail và BlogList</t>
@@ -187,8 +190,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -207,14 +210,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,29 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -266,7 +247,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -289,10 +270,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,7 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,22 +331,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -359,19 +362,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,163 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,17 +556,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +598,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -607,11 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,30 +653,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,130 +674,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,11 +1160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1203,7 +1206,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" hidden="1" spans="1:22">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1231,7 +1234,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" hidden="1" spans="1:22">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1287,7 +1290,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" hidden="1" spans="1:22">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1343,7 +1346,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" hidden="1" spans="1:22">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1371,7 +1374,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" hidden="1" spans="1:22">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1399,7 +1402,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" hidden="1" spans="1:22">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1427,18 +1430,18 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" hidden="1" spans="1:22">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1455,12 +1458,12 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" hidden="1" spans="1:22">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1469,7 +1472,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1483,15 +1486,15 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" hidden="1" spans="1:22">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1511,21 +1514,21 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" hidden="1" spans="1:22">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1539,12 +1542,12 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" hidden="1" spans="1:22">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1553,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1567,21 +1570,21 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" hidden="1" spans="1:22">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1595,12 +1598,12 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" hidden="1" spans="1:22">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1609,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1623,21 +1626,21 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" hidden="1" spans="1:22">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1651,21 +1654,21 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" hidden="1" spans="1:22">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1679,21 +1682,21 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" hidden="1" spans="1:22">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1707,21 +1710,21 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" hidden="1" spans="1:22">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1735,21 +1738,21 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" hidden="1" spans="1:22">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1768,16 +1771,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1791,21 +1794,21 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" hidden="1" spans="1:12">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1814,21 +1817,21 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" hidden="1" spans="1:12">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1837,21 +1840,21 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" hidden="1" spans="1:12">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1865,16 +1868,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1883,21 +1886,21 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" hidden="1" spans="1:12">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1906,21 +1909,21 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" hidden="1" spans="1:12">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1929,52 +1932,47 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" hidden="1" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tú Anh"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:E31">
@@ -2004,11 +2002,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11:C15 C16:C23 C24:C31">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
+      <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
       <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
-      <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -79,6 +79,9 @@
     <t>Code JSP cho CourseList và CourseDetail</t>
   </si>
   <si>
+    <t>Fixing</t>
+  </si>
+  <si>
     <t>16/05/2023</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>Vẽ flow chart</t>
-  </si>
-  <si>
-    <t>Fixing</t>
   </si>
   <si>
     <t>17/05/2023</t>
@@ -186,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -207,7 +207,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +223,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,23 +244,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,32 +253,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,16 +275,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,30 +343,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,43 +359,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,139 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,8 +556,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,17 +592,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,30 +642,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,27 +650,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,11 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1203,7 +1203,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" hidden="1" spans="1:22">
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" hidden="1" spans="1:22">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" hidden="1" spans="1:22">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1326,10 +1326,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1343,21 +1343,21 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" hidden="1" spans="1:22">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1371,21 +1371,21 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" hidden="1" spans="1:22">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1399,12 +1399,12 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" hidden="1" spans="1:22">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1413,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1427,12 +1427,12 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" hidden="1" spans="1:22">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1441,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1455,12 +1455,12 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" hidden="1" spans="1:22">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1483,21 +1483,21 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" hidden="1" spans="1:22">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1511,18 +1511,18 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" hidden="1" spans="1:22">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1539,7 +1539,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" hidden="1" spans="1:22">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" hidden="1" spans="1:22">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" hidden="1" spans="1:22">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1623,7 +1623,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" hidden="1" spans="1:22">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" hidden="1" spans="1:22">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" hidden="1" spans="1:22">
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1707,7 +1707,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" hidden="1" spans="1:22">
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1735,7 +1735,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" hidden="1" spans="1:22">
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -1774,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -1791,7 +1791,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" hidden="1" spans="1:12">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" hidden="1" spans="1:12">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" hidden="1" spans="1:12">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1883,7 +1883,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" hidden="1" spans="1:12">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -1906,7 +1906,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" hidden="1" spans="1:12">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -1929,7 +1929,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" hidden="1" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1963,18 +1963,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:1">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tú Anh"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:E31">
@@ -2001,15 +1996,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
-      <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11:C15 C16:C23 C24:C31">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
+      <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -207,15 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,13 +215,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,46 +230,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,14 +253,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,8 +283,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +359,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,157 +479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,15 +550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,6 +564,48 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,39 +642,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -653,15 +653,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1494,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1999,11 +1999,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11:C15 C16:C23 C24:C31">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
+      <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D31 D2:D3 D4:D8 D10:D13 D14:D17 D18:D23 D24:D27 D28:D30">
-      <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -73,45 +73,45 @@
     <t>Sơn</t>
   </si>
   <si>
+    <t>Code JSP cho CourseList và CourseDetail</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>Tạo entity cho HomePage</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Tạo DAO cho HomePage</t>
+  </si>
+  <si>
+    <t>Làm giao diện đăng ký</t>
+  </si>
+  <si>
     <t>Doing</t>
   </si>
   <si>
-    <t>Code JSP cho CourseList và CourseDetail</t>
+    <t>Làm entity và DAO cho đăng ký</t>
+  </si>
+  <si>
+    <t>Code servlet cho đăng ký</t>
+  </si>
+  <si>
+    <t>Code JSP cho login</t>
+  </si>
+  <si>
+    <t>Quốc Anh</t>
+  </si>
+  <si>
+    <t>Vẽ flow chart</t>
   </si>
   <si>
     <t>Fixing</t>
   </si>
   <si>
-    <t>16/05/2023</t>
-  </si>
-  <si>
-    <t>Tạo entity cho HomePage</t>
-  </si>
-  <si>
-    <t>Linh</t>
-  </si>
-  <si>
-    <t>Tạo DAO cho HomePage</t>
-  </si>
-  <si>
-    <t>Làm giao diện đăng ký</t>
-  </si>
-  <si>
-    <t>Làm entity và DAO cho đăng ký</t>
-  </si>
-  <si>
-    <t>Code servlet cho đăng ký</t>
-  </si>
-  <si>
-    <t>Code JSP cho login</t>
-  </si>
-  <si>
-    <t>Quốc Anh</t>
-  </si>
-  <si>
-    <t>Vẽ flow chart</t>
-  </si>
-  <si>
     <t>17/05/2023</t>
   </si>
   <si>
@@ -121,16 +121,16 @@
     <t>Làm servlet cho HomePage</t>
   </si>
   <si>
+    <t>Điền thông tin vào gg sheet project tracking</t>
+  </si>
+  <si>
+    <t>Viết tài liệu SRS cho phần mình làm</t>
+  </si>
+  <si>
+    <t>Cả nhóm</t>
+  </si>
+  <si>
     <t>To Do</t>
-  </si>
-  <si>
-    <t>Điền thông tin vào gg sheet project tracking</t>
-  </si>
-  <si>
-    <t>Viết tài liệu SRS cho phần mình làm</t>
-  </si>
-  <si>
-    <t>Cả nhóm</t>
   </si>
   <si>
     <t>Viết tài liệu SDS cho phần mình làm</t>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,13 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -228,9 +221,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +245,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +304,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -291,8 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,20 +329,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,21 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,13 +359,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,169 +515,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +550,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,9 +612,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,29 +650,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,130 +671,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1298,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1320,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1348,16 +1348,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1376,16 +1376,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1404,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1432,16 +1432,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1460,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1488,16 +1488,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1516,13 +1516,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1578,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -1600,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1628,13 +1628,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1659,10 +1659,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -1687,10 +1687,10 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -1715,10 +1715,10 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1743,10 +1743,10 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1774,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -1802,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -1825,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -1845,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -1871,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -1891,10 +1891,10 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
@@ -1914,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
@@ -1957,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
